--- a/SALT/ThF4.xlsx
+++ b/SALT/ThF4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F43F81-DBFE-1A4B-9C99-346E9539DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD26171B-F2CD-324C-88B1-1FC5718BC863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="9740" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{51594871-0799-C149-AB5C-64988C7A1478}"/>
+    <workbookView xWindow="320" yWindow="9740" windowWidth="26840" windowHeight="15940" xr2:uid="{51594871-0799-C149-AB5C-64988C7A1478}"/>
   </bookViews>
   <sheets>
     <sheet name="compositions" sheetId="1" r:id="rId1"/>
     <sheet name="mix test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF7F7AC-C433-C446-9095-C88CFB680673}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD56AE0D-8E83-EF4B-88C7-B2B4166A65F0}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>

--- a/SALT/ThF4.xlsx
+++ b/SALT/ThF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD26171B-F2CD-324C-88B1-1FC5718BC863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B7907-7CC1-9140-9B29-1B1DA2E10F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="9740" windowWidth="26840" windowHeight="15940" xr2:uid="{51594871-0799-C149-AB5C-64988C7A1478}"/>
+    <workbookView xWindow="1340" yWindow="8400" windowWidth="26840" windowHeight="15940" xr2:uid="{51594871-0799-C149-AB5C-64988C7A1478}"/>
   </bookViews>
   <sheets>
     <sheet name="compositions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
   <si>
     <t>LiF-ThF4</t>
   </si>
@@ -75,9 +75,6 @@
     <t>atoms</t>
   </si>
   <si>
-    <t>LiF-20ThF4</t>
-  </si>
-  <si>
     <t>LiF-25ThF4</t>
   </si>
   <si>
@@ -196,6 +193,15 @@
   </si>
   <si>
     <t>using this for all three compositions for now…</t>
+  </si>
+  <si>
+    <t>Th4</t>
+  </si>
+  <si>
+    <t>LiF-11ThF4</t>
+  </si>
+  <si>
+    <t>LiF-60ThF4</t>
   </si>
 </sst>
 </file>
@@ -558,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF7F7AC-C433-C446-9095-C88CFB680673}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +579,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -643,7 +649,7 @@
         <v>1373</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <f>C3*0.75+0.25*C4</f>
@@ -662,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -717,10 +723,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
       </c>
       <c r="H10">
         <f>H9/SUM(H8:H9)</f>
@@ -742,7 +748,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -750,10 +756,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
@@ -799,6 +805,88 @@
       <c r="H15">
         <f>H14/SUM(H13:H14)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>64</v>
+      </c>
+      <c r="J18">
+        <f>SUM(H18:H19)</f>
+        <v>72</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <f>H18*2+H19*5</f>
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f>H19/SUM(H18:H19)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <f>SUM(H23:H24)</f>
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <f>H23*2+H24*5</f>
+        <v>152</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f>H24/SUM(H23:H24)</f>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -822,35 +910,35 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0.4</v>
@@ -871,12 +959,12 @@
         <v>1.87</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0.4</v>
@@ -885,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -897,12 +985,12 @@
         <v>2.96</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0.4</v>
@@ -923,21 +1011,21 @@
         <v>2.16</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -949,12 +1037,12 @@
         <v>1.33</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0.2</v>
@@ -975,19 +1063,19 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>0.6</v>
@@ -1008,12 +1096,12 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>0.6</v>
@@ -1022,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1030,12 +1118,12 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>0.4</v>
@@ -1056,35 +1144,35 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
       <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
         <v>34</v>
       </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>0.4</v>
@@ -1105,12 +1193,12 @@
         <v>1.39</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0.4</v>
@@ -1119,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1131,12 +1219,12 @@
         <v>2.21</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>0.4</v>
@@ -1157,21 +1245,21 @@
         <v>0.495</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>26</v>
-      </c>
-      <c r="C17">
-        <v>0.4</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1183,12 +1271,12 @@
         <v>1.85</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>0.2</v>
@@ -1209,19 +1297,19 @@
         <v>3.7</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>0.6</v>
@@ -1242,19 +1330,19 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>0.4</v>
@@ -1275,35 +1363,35 @@
         <v>1.67</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
-        <v>19</v>
-      </c>
       <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
         <v>38</v>
       </c>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>0.4</v>
@@ -1324,12 +1412,12 @@
         <v>3.54</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>0.4</v>
@@ -1338,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1350,12 +1438,12 @@
         <v>1.64</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>0.4</v>
@@ -1376,21 +1464,21 @@
         <v>1.58</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>0.4</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
         <v>26</v>
-      </c>
-      <c r="C28">
-        <v>0.4</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1402,12 +1490,12 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>0.2</v>
@@ -1428,19 +1516,19 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>0.6</v>
@@ -1461,19 +1549,19 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>0.4</v>
@@ -1494,35 +1582,35 @@
         <v>2.82</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
       <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s">
         <v>40</v>
       </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>0.4</v>
@@ -1539,12 +1627,12 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>0.4</v>
@@ -1553,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1565,12 +1653,12 @@
         <v>1.77</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>0.4</v>
@@ -1591,21 +1679,21 @@
         <v>17.8</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -1617,17 +1705,17 @@
         <v>1.65</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="M39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>0.2</v>
@@ -1648,19 +1736,19 @@
         <v>24.6</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>0.6</v>
@@ -1681,19 +1769,19 @@
         <v>19.5</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>0.4</v>
@@ -1714,7 +1802,7 @@
         <v>27.7</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
